--- a/World Country Income Classification.xlsx
+++ b/World Country Income Classification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeeygoh2\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D42360D1-0795-4558-8852-A1C919068E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB23E995-9631-49B2-991B-5D80CA4D79C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{550B3595-9720-458A-932C-10503FDA9F55}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{550B3595-9720-458A-932C-10503FDA9F55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -702,6 +700,12 @@
   </si>
   <si>
     <t>Venezuela, RB</t>
+  </si>
+  <si>
+    <t>Country Name</t>
+  </si>
+  <si>
+    <t>Income Group</t>
   </si>
 </sst>
 </file>
@@ -1087,1337 +1091,1345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6DD4E5-5F5F-4CF5-B8DA-1C181DADA2B1}">
-  <dimension ref="A1:B217"/>
+  <dimension ref="A1:B218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B217" sqref="B217"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.90625" customWidth="1"/>
-    <col min="2" max="2" width="44.90625" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B42" s="1" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="1" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="1" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B54" s="1" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B55" s="1" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B56" s="1" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B57" s="1" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B58" s="1" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B59" s="1" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B60" s="1" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B61" s="1" t="s">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="1" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="1" t="s">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B64" s="1" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B65" s="1" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B66" s="1" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B67" s="1" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="1" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B69" s="1" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B70" s="1" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B71" s="1" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B72" s="1" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B73" s="1" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B74" s="1" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B75" s="1" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="1" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B77" s="1" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B79" s="1" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B80" s="1" t="s">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B81" s="1" t="s">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="1" t="s">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B83" s="1" t="s">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="1" t="s">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B85" s="1" t="s">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="1" t="s">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B87" s="1" t="s">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="1" t="s">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B89" s="1" t="s">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="1" t="s">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B91" s="1" t="s">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="1" t="s">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B93" s="1" t="s">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B94" s="1" t="s">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B95" s="1" t="s">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B96" s="1" t="s">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B97" s="1" t="s">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B98" s="1" t="s">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B99" s="1" t="s">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B100" s="1" t="s">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B101" s="1" t="s">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B102" s="1" t="s">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B103" s="1" t="s">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B104" s="1" t="s">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B105" s="1" t="s">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B106" s="1" t="s">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B107" s="1" t="s">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B108" s="1" t="s">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B109" s="1" t="s">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B110" s="1" t="s">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B111" s="1" t="s">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B112" s="1" t="s">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B113" s="1" t="s">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B114" s="1" t="s">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B115" s="1" t="s">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B116" s="1" t="s">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B117" s="1" t="s">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B118" s="1" t="s">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B119" s="1" t="s">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B120" s="1" t="s">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B121" s="1" t="s">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B122" s="1" t="s">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B123" s="1" t="s">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B124" s="1" t="s">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B125" s="1" t="s">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B126" s="1" t="s">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B127" s="1" t="s">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B128" s="1" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B129" s="1" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B130" s="1" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B131" s="1" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>134</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B133" s="1" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B134" s="1" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B135" s="1" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B136" s="1" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B137" s="1" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B138" s="1" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B139" s="1" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B140" s="1" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B141" s="1" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B142" s="1" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B143" s="1" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B144" s="1" t="s">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B145" s="1" t="s">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B146" s="1" t="s">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B147" s="1" t="s">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B148" s="1" t="s">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B149" s="1" t="s">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B150" s="1" t="s">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B151" s="1" t="s">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B152" s="1" t="s">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B153" s="1" t="s">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B154" s="1" t="s">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B155" s="1" t="s">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B156" s="1" t="s">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B157" s="1" t="s">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B158" s="1" t="s">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B159" s="1" t="s">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B160" s="1" t="s">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B161" s="1" t="s">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B162" s="1" t="s">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B163" s="1" t="s">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B164" s="1" t="s">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B165" s="1" t="s">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B166" s="1" t="s">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B167" s="1" t="s">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B168" s="1" t="s">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B169" s="1" t="s">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B170" s="1" t="s">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B171" s="1" t="s">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B172" s="1" t="s">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B173" s="1" t="s">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B174" s="1" t="s">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B175" s="1" t="s">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B176" s="1" t="s">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B177" s="1" t="s">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B178" s="1" t="s">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B179" s="1" t="s">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B180" s="1" t="s">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B181" s="1" t="s">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B182" s="1" t="s">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B183" s="1" t="s">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B184" s="1" t="s">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B185" s="1" t="s">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B186" s="1" t="s">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B187" s="1" t="s">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B188" s="1" t="s">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B189" s="1" t="s">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B190" s="1" t="s">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B191" s="1" t="s">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B192" s="1" t="s">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B193" s="1" t="s">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B194" s="1" t="s">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B195" s="1" t="s">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B196" s="1" t="s">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B197" s="1" t="s">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B198" s="1" t="s">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B199" s="1" t="s">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B200" s="1" t="s">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B201" s="1" t="s">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B202" s="1" t="s">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B203" s="1" t="s">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B204" s="1" t="s">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B205" s="1" t="s">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B206" s="1" t="s">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B207" s="1" t="s">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B208" s="1" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B209" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B209" s="1" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B210" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B210" s="1" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B211" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B211" s="1" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B212" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B212" s="1" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B213" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B213" s="1" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B214" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B214" s="1" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B215" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B215" s="1" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B216" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B216" s="1" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B217" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>220</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>221</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://data360.worldbank.org/en/economy/AFG" xr:uid="{9C8FA351-6861-44B9-A606-2B2F61574811}"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://data360.worldbank.org/en/economy/BFA" xr:uid="{CB95DEF1-AC3F-4C22-B648-559BD323D6FE}"/>
-    <hyperlink ref="B3" r:id="rId3" display="https://data360.worldbank.org/en/economy/BDI" xr:uid="{83A1EE3C-CA7C-462E-A153-BAC10B4104EB}"/>
-    <hyperlink ref="B4" r:id="rId4" display="https://data360.worldbank.org/en/economy/CAF" xr:uid="{C4787BA8-AD8B-497B-A6D5-F8A7F827583D}"/>
-    <hyperlink ref="B5" r:id="rId5" display="https://data360.worldbank.org/en/economy/TCD" xr:uid="{6A45B77B-A0D6-43EB-A03E-69F2BAC5E3F9}"/>
-    <hyperlink ref="B6" r:id="rId6" display="https://data360.worldbank.org/en/economy/COD" xr:uid="{98407551-2C63-4AA0-867E-686171E154B4}"/>
-    <hyperlink ref="B7" r:id="rId7" display="https://data360.worldbank.org/en/economy/ERI" xr:uid="{A2F33C24-405D-48B4-8A03-6532712DDDFC}"/>
-    <hyperlink ref="B8" r:id="rId8" display="https://data360.worldbank.org/en/economy/ETH" xr:uid="{127EF7B1-ECDD-48F1-A2EE-901703DEFE42}"/>
-    <hyperlink ref="B9" r:id="rId9" display="https://data360.worldbank.org/en/economy/GMB" xr:uid="{69071FBA-C38C-4458-87D8-A6FF288009B3}"/>
-    <hyperlink ref="B10" r:id="rId10" display="https://data360.worldbank.org/en/economy/GNB" xr:uid="{F3B0BB77-C97A-4E87-AA3C-8D67FA31FD50}"/>
-    <hyperlink ref="B11" r:id="rId11" display="https://data360.worldbank.org/en/economy/PRK" xr:uid="{D2846042-E613-41B0-BB80-0591B49E3C03}"/>
-    <hyperlink ref="B12" r:id="rId12" display="https://data360.worldbank.org/en/economy/LBR" xr:uid="{C8A75F5D-2510-42EE-B2D1-FDE6C29257B6}"/>
-    <hyperlink ref="B13" r:id="rId13" display="https://data360.worldbank.org/en/economy/MDG" xr:uid="{9F7A1B7D-0492-4F5D-A3E0-44DCCBC3CE51}"/>
-    <hyperlink ref="B14" r:id="rId14" display="https://data360.worldbank.org/en/economy/MWI" xr:uid="{42BED76A-6D54-45A3-87B1-EC6B27E820B3}"/>
-    <hyperlink ref="B15" r:id="rId15" display="https://data360.worldbank.org/en/economy/MLI" xr:uid="{BFDC76CB-EC48-4A44-9A23-0090CCA1F2C4}"/>
-    <hyperlink ref="B16" r:id="rId16" display="https://data360.worldbank.org/en/economy/MOZ" xr:uid="{1773DC18-9D23-427F-9F9A-6002A457E55E}"/>
-    <hyperlink ref="B17" r:id="rId17" display="https://data360.worldbank.org/en/economy/NER" xr:uid="{7E42C47D-CDF3-4A46-91DB-5023102FC092}"/>
-    <hyperlink ref="B18" r:id="rId18" display="https://data360.worldbank.org/en/economy/RWA" xr:uid="{0C9509E2-C37F-4477-81B0-5080644BD4C0}"/>
-    <hyperlink ref="B19" r:id="rId19" display="https://data360.worldbank.org/en/economy/SLE" xr:uid="{6CEC869F-1A04-487F-A3F8-52A4417D6325}"/>
-    <hyperlink ref="B20" r:id="rId20" display="https://data360.worldbank.org/en/economy/SOM" xr:uid="{53E43F47-9D84-4CEB-A79D-69AE751C83D9}"/>
-    <hyperlink ref="B21" r:id="rId21" display="https://data360.worldbank.org/en/economy/SSD" xr:uid="{40FE9E36-5696-441F-9008-5E12D579ACF1}"/>
-    <hyperlink ref="B22" r:id="rId22" display="https://data360.worldbank.org/en/economy/SDN" xr:uid="{B7F266AB-1AB1-45F7-AC0C-F3BCAE80BC16}"/>
-    <hyperlink ref="B23" r:id="rId23" display="https://data360.worldbank.org/en/economy/SYR" xr:uid="{6D42600D-697E-4626-98C7-77D3ADCA88C1}"/>
-    <hyperlink ref="B24" r:id="rId24" display="https://data360.worldbank.org/en/economy/TGO" xr:uid="{65154E8D-FE82-4D79-AD17-CFFE6FA4C6CC}"/>
-    <hyperlink ref="B25" r:id="rId25" display="https://data360.worldbank.org/en/economy/UGA" xr:uid="{627D3AE8-13B2-42D8-B008-B2880EBEADDD}"/>
-    <hyperlink ref="B26" r:id="rId26" display="https://data360.worldbank.org/en/economy/YEM" xr:uid="{64D0B793-0B0E-42D4-A9D1-B7C2E3170293}"/>
-    <hyperlink ref="B27" r:id="rId27" display="https://data360.worldbank.org/en/economy/AGO" xr:uid="{AE75EF68-3C09-4BA9-8CD1-6F3030680619}"/>
-    <hyperlink ref="B28" r:id="rId28" display="https://data360.worldbank.org/en/economy/BGD" xr:uid="{FE527036-C1AC-4FA1-A781-87D767CA9854}"/>
-    <hyperlink ref="B29" r:id="rId29" display="https://data360.worldbank.org/en/economy/BEN" xr:uid="{AAD600FB-9DC1-487B-B037-CC5A41FD4BC2}"/>
-    <hyperlink ref="B30" r:id="rId30" display="https://data360.worldbank.org/en/economy/BTN" xr:uid="{F57964C5-11A7-4B30-9E68-BCDF7550D760}"/>
-    <hyperlink ref="B31" r:id="rId31" display="https://data360.worldbank.org/en/economy/BOL" xr:uid="{7478ABB3-3AD8-4A0C-B786-5C95276E0699}"/>
-    <hyperlink ref="B32" r:id="rId32" display="https://data360.worldbank.org/en/economy/CPV" xr:uid="{5B92BD5B-CE04-4B7D-B859-C54DF6613F6B}"/>
-    <hyperlink ref="B33" r:id="rId33" display="https://data360.worldbank.org/en/economy/KHM" xr:uid="{E82B406A-E100-4FB2-9C17-E8BD3B99DFBF}"/>
-    <hyperlink ref="B34" r:id="rId34" display="https://data360.worldbank.org/en/economy/CMR" xr:uid="{6190AD66-427D-4C25-975E-CA5D0E3444FE}"/>
-    <hyperlink ref="B35" r:id="rId35" display="https://data360.worldbank.org/en/economy/COM" xr:uid="{2CB4915D-EE0C-4EBE-A177-275048FDF1C5}"/>
-    <hyperlink ref="B36" r:id="rId36" display="https://data360.worldbank.org/en/economy/COG" xr:uid="{11D803E2-5185-423E-B3B2-D22F813FD203}"/>
-    <hyperlink ref="B37" r:id="rId37" display="https://data360.worldbank.org/en/economy/CIV" xr:uid="{C81675EC-E0C7-4D3F-A2EC-7120EBF21319}"/>
-    <hyperlink ref="B38" r:id="rId38" display="https://data360.worldbank.org/en/economy/DJI" xr:uid="{A49D96AC-FFEA-43F0-9211-65CD6D10F13D}"/>
-    <hyperlink ref="B39" r:id="rId39" display="https://data360.worldbank.org/en/economy/EGY" xr:uid="{DA4B6517-4D1B-4736-BBBC-353F036E2997}"/>
-    <hyperlink ref="B40" r:id="rId40" display="https://data360.worldbank.org/en/economy/SWZ" xr:uid="{7709339D-5BAC-4C08-A1FF-0C93241C03CB}"/>
-    <hyperlink ref="B41" r:id="rId41" display="https://data360.worldbank.org/en/economy/GHA" xr:uid="{4BA1D3DB-6998-4D97-B092-0C48C155CD1A}"/>
-    <hyperlink ref="B42" r:id="rId42" display="https://data360.worldbank.org/en/economy/GIN" xr:uid="{B21C43C4-D4F9-4462-B7EE-828F0B896865}"/>
-    <hyperlink ref="B43" r:id="rId43" display="https://data360.worldbank.org/en/economy/HTI" xr:uid="{23B211B6-E0EA-4620-B323-3E0E1CF50C01}"/>
-    <hyperlink ref="B44" r:id="rId44" display="https://data360.worldbank.org/en/economy/HND" xr:uid="{9CAAA413-B0DC-4FC0-A984-CB087588A6C8}"/>
-    <hyperlink ref="B45" r:id="rId45" display="https://data360.worldbank.org/en/economy/IND" xr:uid="{D921149E-3EA0-4072-A3FC-1D26B5534539}"/>
-    <hyperlink ref="B46" r:id="rId46" display="https://data360.worldbank.org/en/economy/JOR" xr:uid="{E58F8218-3435-4268-B5AD-BF6078CCF110}"/>
-    <hyperlink ref="B47" r:id="rId47" display="https://data360.worldbank.org/en/economy/KEN" xr:uid="{7CD2E8BE-5031-4D21-A94F-2565DFD2089B}"/>
-    <hyperlink ref="B48" r:id="rId48" display="https://data360.worldbank.org/en/economy/KIR" xr:uid="{74DAD1E2-CF79-4F5F-9BB8-6B3CEDDA9F26}"/>
-    <hyperlink ref="B49" r:id="rId49" display="https://data360.worldbank.org/en/economy/KGZ" xr:uid="{C68E8310-263A-4982-B975-DD357EB3701A}"/>
-    <hyperlink ref="B50" r:id="rId50" display="https://data360.worldbank.org/en/economy/LAO" xr:uid="{53E43AC9-6AEA-4657-BAB4-D02A51893BE2}"/>
-    <hyperlink ref="B51" r:id="rId51" display="https://data360.worldbank.org/en/economy/LBN" xr:uid="{64237C4D-BE95-4484-BF97-6B3E69D1F00A}"/>
-    <hyperlink ref="B52" r:id="rId52" display="https://data360.worldbank.org/en/economy/LSO" xr:uid="{4BC22F4D-FC3B-48EC-81B4-62843A20AE26}"/>
-    <hyperlink ref="B53" r:id="rId53" display="https://data360.worldbank.org/en/economy/MRT" xr:uid="{402502FE-C882-401D-8FCB-E90751973F60}"/>
-    <hyperlink ref="B54" r:id="rId54" display="https://data360.worldbank.org/en/economy/FSM" xr:uid="{F50409C4-92A8-4F39-92CF-29D2A7306A3D}"/>
-    <hyperlink ref="B55" r:id="rId55" display="https://data360.worldbank.org/en/economy/MAR" xr:uid="{ECD1C270-97C1-47E3-A218-3F6BAF7AB0AF}"/>
-    <hyperlink ref="B56" r:id="rId56" display="https://data360.worldbank.org/en/economy/MMR" xr:uid="{8AF884F2-A854-4F2E-92F5-9573FDB06EEA}"/>
-    <hyperlink ref="B57" r:id="rId57" display="https://data360.worldbank.org/en/economy/NPL" xr:uid="{C8234EFE-B572-445F-8BCA-2BE4E5EE8F71}"/>
-    <hyperlink ref="B58" r:id="rId58" display="https://data360.worldbank.org/en/economy/NIC" xr:uid="{EF0149FF-8BD0-4B06-9BCA-0A6170100D8D}"/>
-    <hyperlink ref="B59" r:id="rId59" display="https://data360.worldbank.org/en/economy/NGA" xr:uid="{18994D52-9BCE-471B-BB08-06230E3C393B}"/>
-    <hyperlink ref="B60" r:id="rId60" display="https://data360.worldbank.org/en/economy/PAK" xr:uid="{2202B519-99D6-49AB-B105-EDD514868908}"/>
-    <hyperlink ref="B61" r:id="rId61" display="https://data360.worldbank.org/en/economy/PNG" xr:uid="{888FBF8A-5F49-4836-AF39-99C1E5C058A2}"/>
-    <hyperlink ref="B62" r:id="rId62" display="https://data360.worldbank.org/en/economy/PHL" xr:uid="{18CA424B-AFAA-4E37-90D6-B20EE425DC99}"/>
-    <hyperlink ref="B63" r:id="rId63" display="https://data360.worldbank.org/en/economy/WSM" xr:uid="{5FC72FF5-ACBF-4BEF-B2A6-867F6507ADC6}"/>
-    <hyperlink ref="B64" r:id="rId64" display="https://data360.worldbank.org/en/economy/STP" xr:uid="{0F137C81-9F17-4185-834A-C0344E8391B5}"/>
-    <hyperlink ref="B65" r:id="rId65" display="https://data360.worldbank.org/en/economy/SEN" xr:uid="{DC4D5EDA-1C1F-4B6F-8C47-E9865788D7A1}"/>
-    <hyperlink ref="B66" r:id="rId66" display="https://data360.worldbank.org/en/economy/SLB" xr:uid="{91943838-223F-434C-A213-60A70E491FFB}"/>
-    <hyperlink ref="B67" r:id="rId67" display="https://data360.worldbank.org/en/economy/LKA" xr:uid="{3F5DB72D-CF19-4F74-8110-7343AF4A139B}"/>
-    <hyperlink ref="B68" r:id="rId68" display="https://data360.worldbank.org/en/economy/TJK" xr:uid="{9483916A-D1EC-4FCE-843D-E7CBCC90A5BE}"/>
-    <hyperlink ref="B69" r:id="rId69" display="https://data360.worldbank.org/en/economy/TZA" xr:uid="{7B082CDF-8A60-4B2A-B4A1-B6E033840875}"/>
-    <hyperlink ref="B70" r:id="rId70" display="https://data360.worldbank.org/en/economy/TLS" xr:uid="{B40813DD-B034-4893-B3C7-3F2F7F87150D}"/>
-    <hyperlink ref="B71" r:id="rId71" display="https://data360.worldbank.org/en/economy/TUN" xr:uid="{CAA4D455-41B5-41CA-8188-384171A7D8C4}"/>
-    <hyperlink ref="B72" r:id="rId72" display="https://data360.worldbank.org/en/economy/UZB" xr:uid="{359D94A5-1873-48E4-AF55-AF434F385C38}"/>
-    <hyperlink ref="B73" r:id="rId73" display="https://data360.worldbank.org/en/economy/VUT" xr:uid="{AF2DF969-7623-4EDE-8EC6-E320B426BBF4}"/>
-    <hyperlink ref="B74" r:id="rId74" display="https://data360.worldbank.org/en/economy/VNM" xr:uid="{D7E67A2F-F434-4099-A8B4-82C3487909E3}"/>
-    <hyperlink ref="B75" r:id="rId75" display="https://data360.worldbank.org/en/economy/PSE" xr:uid="{1B6DF475-DA20-4301-8C86-6DB1D42FFDFB}"/>
-    <hyperlink ref="B76" r:id="rId76" display="https://data360.worldbank.org/en/economy/ZMB" xr:uid="{688A864E-70B9-486A-AEF1-D06951074990}"/>
-    <hyperlink ref="B77" r:id="rId77" display="https://data360.worldbank.org/en/economy/ZWE" xr:uid="{20FC4437-2246-48BF-BA03-09D08CCCF9E3}"/>
-    <hyperlink ref="B78" r:id="rId78" display="https://data360.worldbank.org/en/economy/ALB" xr:uid="{AE832C20-8ECD-4821-9C24-3EC4CB7F4B02}"/>
-    <hyperlink ref="B79" r:id="rId79" display="https://data360.worldbank.org/en/economy/DZA" xr:uid="{50297C06-A2A9-4DBF-B194-FBA48EDFC527}"/>
-    <hyperlink ref="B80" r:id="rId80" display="https://data360.worldbank.org/en/economy/ARG" xr:uid="{22373742-932B-4F19-94B6-25B67CEA30DE}"/>
-    <hyperlink ref="B81" r:id="rId81" display="https://data360.worldbank.org/en/economy/ARM" xr:uid="{4321E270-A27C-4A65-B1A3-B19E368B37EB}"/>
-    <hyperlink ref="B82" r:id="rId82" display="https://data360.worldbank.org/en/economy/AZE" xr:uid="{6DF0431A-9993-42D7-B959-12E8965D19B6}"/>
-    <hyperlink ref="B83" r:id="rId83" display="https://data360.worldbank.org/en/economy/BLR" xr:uid="{11C73914-FCD7-4883-8084-0241F3DF0904}"/>
-    <hyperlink ref="B84" r:id="rId84" display="https://data360.worldbank.org/en/economy/BLZ" xr:uid="{C6312B71-5051-4A0B-ACB9-14575B30D014}"/>
-    <hyperlink ref="B85" r:id="rId85" display="https://data360.worldbank.org/en/economy/BIH" xr:uid="{E5567FD2-1030-4023-8E77-ACD07DFC31C9}"/>
-    <hyperlink ref="B86" r:id="rId86" display="https://data360.worldbank.org/en/economy/BWA" xr:uid="{EC0C9E26-32A3-4AB6-B4D4-F73E9D0A6D4B}"/>
-    <hyperlink ref="B87" r:id="rId87" display="https://data360.worldbank.org/en/economy/BRA" xr:uid="{7E21B185-012C-44C5-B5EC-9B65119734DD}"/>
-    <hyperlink ref="B88" r:id="rId88" display="https://data360.worldbank.org/en/economy/CHN" xr:uid="{58CAEEA7-2E30-46F3-B3E0-4C30275660E9}"/>
-    <hyperlink ref="B89" r:id="rId89" display="https://data360.worldbank.org/en/economy/COL" xr:uid="{84EF8F58-0FF9-494B-A1A1-0F94F825854F}"/>
-    <hyperlink ref="B90" r:id="rId90" display="https://data360.worldbank.org/en/economy/CRI" xr:uid="{1D985A04-690D-4A00-8A1F-EC3952E5D4CC}"/>
-    <hyperlink ref="B91" r:id="rId91" display="https://data360.worldbank.org/en/economy/CUB" xr:uid="{2CA4B49F-A140-4162-B8AE-9493E712EC3A}"/>
-    <hyperlink ref="B92" r:id="rId92" display="https://data360.worldbank.org/en/economy/DMA" xr:uid="{CDFAC7E7-6B27-42C2-9FB7-F493306A56E1}"/>
-    <hyperlink ref="B93" r:id="rId93" display="https://data360.worldbank.org/en/economy/DOM" xr:uid="{B1762610-FE36-4732-B033-6288256A08C4}"/>
-    <hyperlink ref="B94" r:id="rId94" display="https://data360.worldbank.org/en/economy/ECU" xr:uid="{CA9BB8CB-B2FC-46CB-9201-8FEC67A26E7F}"/>
-    <hyperlink ref="B95" r:id="rId95" display="https://data360.worldbank.org/en/economy/SLV" xr:uid="{3ED19662-AC85-40D2-8247-B34C861610B7}"/>
-    <hyperlink ref="B96" r:id="rId96" display="https://data360.worldbank.org/en/economy/GNQ" xr:uid="{964D4429-1133-43F5-B098-F72112FA88CC}"/>
-    <hyperlink ref="B97" r:id="rId97" display="https://data360.worldbank.org/en/economy/FJI" xr:uid="{1678CC8B-F28B-4794-96EE-40F1F689CD9F}"/>
-    <hyperlink ref="B98" r:id="rId98" display="https://data360.worldbank.org/en/economy/GAB" xr:uid="{34492127-79FA-4091-9382-4B7428A6B33D}"/>
-    <hyperlink ref="B99" r:id="rId99" display="https://data360.worldbank.org/en/economy/GEO" xr:uid="{B2D244C2-8DDB-43AC-AF79-AC2CEDD669C2}"/>
-    <hyperlink ref="B100" r:id="rId100" display="https://data360.worldbank.org/en/economy/GRD" xr:uid="{9CFFB5BD-B0A1-4268-A304-D7DFBD68F2B9}"/>
-    <hyperlink ref="B101" r:id="rId101" display="https://data360.worldbank.org/en/economy/GTM" xr:uid="{F7CD8F89-5807-44BF-81BD-450045E39AF7}"/>
-    <hyperlink ref="B102" r:id="rId102" display="https://data360.worldbank.org/en/economy/IDN" xr:uid="{5F732F74-6A18-433F-A265-D7F57A4A153F}"/>
-    <hyperlink ref="B103" r:id="rId103" display="https://data360.worldbank.org/en/economy/IRN" xr:uid="{DD6723C5-9B5B-43B9-B739-A9C4F17FAFDC}"/>
-    <hyperlink ref="B104" r:id="rId104" display="https://data360.worldbank.org/en/economy/IRQ" xr:uid="{41EA9A82-4054-4776-B3ED-BFCD9498CE90}"/>
-    <hyperlink ref="B105" r:id="rId105" display="https://data360.worldbank.org/en/economy/JAM" xr:uid="{B262AF50-74D7-46B2-BAA5-3CC6FADD6DD4}"/>
-    <hyperlink ref="B106" r:id="rId106" display="https://data360.worldbank.org/en/economy/KAZ" xr:uid="{C4190620-D166-41C8-8B9E-BA86BE2EE5A9}"/>
-    <hyperlink ref="B107" r:id="rId107" display="https://data360.worldbank.org/en/economy/XKX" xr:uid="{365F5900-F5AA-4D57-AB6C-F5275B21844B}"/>
-    <hyperlink ref="B108" r:id="rId108" display="https://data360.worldbank.org/en/economy/LBY" xr:uid="{79F9766D-EE8F-4527-99E5-7C18466CEE96}"/>
-    <hyperlink ref="B109" r:id="rId109" display="https://data360.worldbank.org/en/economy/MYS" xr:uid="{D4E7950E-C1F2-4C24-BE11-98A94004B9E8}"/>
-    <hyperlink ref="B110" r:id="rId110" display="https://data360.worldbank.org/en/economy/MDV" xr:uid="{528FC446-A85A-409F-A3CE-20AC2D1CC359}"/>
-    <hyperlink ref="B111" r:id="rId111" display="https://data360.worldbank.org/en/economy/MHL" xr:uid="{C4B656C6-F8B8-4E66-9688-5CDC950E80DA}"/>
-    <hyperlink ref="B112" r:id="rId112" display="https://data360.worldbank.org/en/economy/MUS" xr:uid="{51A6AEC6-7C2F-4DCB-A4A1-E380F8DA3D12}"/>
-    <hyperlink ref="B113" r:id="rId113" display="https://data360.worldbank.org/en/economy/MEX" xr:uid="{325B29B6-509C-4E13-B3E0-8022DBF87FF9}"/>
-    <hyperlink ref="B114" r:id="rId114" display="https://data360.worldbank.org/en/economy/MDA" xr:uid="{3D405863-B738-4AAF-B5F8-269CBDE18C8D}"/>
-    <hyperlink ref="B115" r:id="rId115" display="https://data360.worldbank.org/en/economy/MNG" xr:uid="{70BE62DE-211F-43D8-9241-7E221446716B}"/>
-    <hyperlink ref="B116" r:id="rId116" display="https://data360.worldbank.org/en/economy/MNE" xr:uid="{3FB6900C-D903-4B0E-86AA-3777EE1A4184}"/>
-    <hyperlink ref="B117" r:id="rId117" display="https://data360.worldbank.org/en/economy/NAM" xr:uid="{947FDD34-1926-42E7-9190-A7AE0AA5C79D}"/>
-    <hyperlink ref="B118" r:id="rId118" display="https://data360.worldbank.org/en/economy/MKD" xr:uid="{7A11E8EC-52A9-42C5-9C8F-9A25E6C71E62}"/>
-    <hyperlink ref="B119" r:id="rId119" display="https://data360.worldbank.org/en/economy/PRY" xr:uid="{BFF17003-C129-4CCE-BD1D-871B04CEF5E4}"/>
-    <hyperlink ref="B120" r:id="rId120" display="https://data360.worldbank.org/en/economy/PER" xr:uid="{C77A347B-EB61-4EFE-A1CF-9184313059DD}"/>
-    <hyperlink ref="B121" r:id="rId121" display="https://data360.worldbank.org/en/economy/SRB" xr:uid="{C65145ED-4953-405B-972B-FE6557EDCAF3}"/>
-    <hyperlink ref="B122" r:id="rId122" display="https://data360.worldbank.org/en/economy/ZAF" xr:uid="{D7A7A7F7-F4C8-4034-B441-4B9758A00BB1}"/>
-    <hyperlink ref="B123" r:id="rId123" display="https://data360.worldbank.org/en/economy/LCA" xr:uid="{F22FE9CE-0AEE-465B-9E9B-DAF3AB9DC09E}"/>
-    <hyperlink ref="B124" r:id="rId124" display="https://data360.worldbank.org/en/economy/VCT" xr:uid="{CB62640A-D795-42F1-A672-E8BA310EB8CC}"/>
-    <hyperlink ref="B125" r:id="rId125" display="https://data360.worldbank.org/en/economy/SUR" xr:uid="{295B3BA7-634B-4A0C-B08C-15154632CD96}"/>
-    <hyperlink ref="B126" r:id="rId126" display="https://data360.worldbank.org/en/economy/THA" xr:uid="{CFE80AF0-636A-404A-B110-80AD9F584ED7}"/>
-    <hyperlink ref="B127" r:id="rId127" display="https://data360.worldbank.org/en/economy/TON" xr:uid="{1B0CA643-8919-4D53-A864-37C2FB0AD472}"/>
-    <hyperlink ref="B128" r:id="rId128" display="https://data360.worldbank.org/en/economy/TUR" xr:uid="{8EDAA0C4-3F24-462E-8905-B5E7997DF9FB}"/>
-    <hyperlink ref="B129" r:id="rId129" display="https://data360.worldbank.org/en/economy/TKM" xr:uid="{20E84A6A-DFFA-42AE-B971-43D4CF5337BD}"/>
-    <hyperlink ref="B130" r:id="rId130" display="https://data360.worldbank.org/en/economy/TUV" xr:uid="{5A4961B9-6A71-442C-90D0-33D6911CC5D0}"/>
-    <hyperlink ref="B131" r:id="rId131" display="https://data360.worldbank.org/en/economy/UKR" xr:uid="{6FF2702B-F54F-4E36-AB2A-E6B160DE8216}"/>
-    <hyperlink ref="B132" r:id="rId132" display="https://data360.worldbank.org/en/economy/ASM" xr:uid="{D4DD5B38-AEBD-41D6-A9D5-8A8A3031D070}"/>
-    <hyperlink ref="B133" r:id="rId133" display="https://data360.worldbank.org/en/economy/AND" xr:uid="{C03E1668-E151-41E7-B33C-33CB2DFE11FB}"/>
-    <hyperlink ref="B134" r:id="rId134" display="https://data360.worldbank.org/en/economy/ATG" xr:uid="{1D57F9A2-ABFC-4A6D-A068-6D75F22E047A}"/>
-    <hyperlink ref="B135" r:id="rId135" display="https://data360.worldbank.org/en/economy/ABW" xr:uid="{CE1514DB-C796-4379-9E37-DB638CF78410}"/>
-    <hyperlink ref="B136" r:id="rId136" display="https://data360.worldbank.org/en/economy/AUS" xr:uid="{F46134E6-0803-4ED3-A58C-129CC23FAD8D}"/>
-    <hyperlink ref="B137" r:id="rId137" display="https://data360.worldbank.org/en/economy/AUT" xr:uid="{5F1BDE1B-E6A6-4D1D-AFA2-55C5BB037032}"/>
-    <hyperlink ref="B138" r:id="rId138" display="https://data360.worldbank.org/en/economy/BHS" xr:uid="{24437C15-A085-4799-B1D6-E66BDDF34AEE}"/>
-    <hyperlink ref="B139" r:id="rId139" display="https://data360.worldbank.org/en/economy/BHR" xr:uid="{6ABA3152-B77F-4794-B1E4-10C23B956B59}"/>
-    <hyperlink ref="B140" r:id="rId140" display="https://data360.worldbank.org/en/economy/BRB" xr:uid="{B82D9FE0-147F-4D7F-B3A6-76AECB697AE6}"/>
-    <hyperlink ref="B141" r:id="rId141" display="https://data360.worldbank.org/en/economy/BEL" xr:uid="{EF9068B5-A3D1-4482-9509-81E902016400}"/>
-    <hyperlink ref="B142" r:id="rId142" display="https://data360.worldbank.org/en/economy/BMU" xr:uid="{2D772BF0-7EF2-4569-92D1-3E133A4FFDC7}"/>
-    <hyperlink ref="B143" r:id="rId143" display="https://data360.worldbank.org/en/economy/VGB" xr:uid="{0D3CC074-3C66-4815-9A3B-7610DCBAE2C7}"/>
-    <hyperlink ref="B144" r:id="rId144" display="https://data360.worldbank.org/en/economy/BRN" xr:uid="{85513FE1-1EC7-4E01-9A7F-A412C643E0B8}"/>
-    <hyperlink ref="B145" r:id="rId145" display="https://data360.worldbank.org/en/economy/BGR" xr:uid="{AC5D7703-6B4E-4191-BCBF-3F03D0EA0D7D}"/>
-    <hyperlink ref="B146" r:id="rId146" display="https://data360.worldbank.org/en/economy/CAN" xr:uid="{639EF08E-F684-44B1-970D-36911C55847F}"/>
-    <hyperlink ref="B147" r:id="rId147" display="https://data360.worldbank.org/en/economy/CYM" xr:uid="{BDC364CB-5712-44C0-8093-8071FC190395}"/>
-    <hyperlink ref="B148" r:id="rId148" display="https://data360.worldbank.org/en/economy/CHI" xr:uid="{B318D955-1AC8-46F0-9F18-1146DC4442FD}"/>
-    <hyperlink ref="B149" r:id="rId149" display="https://data360.worldbank.org/en/economy/CHL" xr:uid="{EC0BEECB-0184-4C5B-A22D-0D43D832E738}"/>
-    <hyperlink ref="B150" r:id="rId150" display="https://data360.worldbank.org/en/economy/HRV" xr:uid="{5D969C14-ED4C-4BD2-8836-B1C3DFB97678}"/>
-    <hyperlink ref="B151" r:id="rId151" display="https://data360.worldbank.org/en/economy/CUW" xr:uid="{A56F3389-EAEF-43C8-9A36-0C7D9BD835EA}"/>
-    <hyperlink ref="B152" r:id="rId152" display="https://data360.worldbank.org/en/economy/CYP" xr:uid="{6A9AB494-11A4-4DE2-8704-352BDC62DD11}"/>
-    <hyperlink ref="B153" r:id="rId153" display="https://data360.worldbank.org/en/economy/CZE" xr:uid="{81908B8F-7E74-4399-A0CF-6B506202DB15}"/>
-    <hyperlink ref="B154" r:id="rId154" display="https://data360.worldbank.org/en/economy/DNK" xr:uid="{A05DD57A-30DE-4D2E-AC9D-2EF8043E33BD}"/>
-    <hyperlink ref="B155" r:id="rId155" display="https://data360.worldbank.org/en/economy/EST" xr:uid="{A79D8F7A-E699-42E7-B1A8-FB0025D8063F}"/>
-    <hyperlink ref="B156" r:id="rId156" display="https://data360.worldbank.org/en/economy/FRO" xr:uid="{1D5CEC3A-0917-4FF6-8CEE-FD4943F3E229}"/>
-    <hyperlink ref="B157" r:id="rId157" display="https://data360.worldbank.org/en/economy/FIN" xr:uid="{C1DB68FA-E514-4B1D-8BD4-780E8570D91E}"/>
-    <hyperlink ref="B158" r:id="rId158" display="https://data360.worldbank.org/en/economy/FRA" xr:uid="{42DC7DBF-CDA0-465F-AD40-2E0B770EE4B4}"/>
-    <hyperlink ref="B159" r:id="rId159" display="https://data360.worldbank.org/en/economy/PYF" xr:uid="{55EF4D3B-2EC6-4111-B07A-C17AB22F4789}"/>
-    <hyperlink ref="B160" r:id="rId160" display="https://data360.worldbank.org/en/economy/DEU" xr:uid="{5256CF76-2D0C-43C3-843A-E282C15E7380}"/>
-    <hyperlink ref="B161" r:id="rId161" display="https://data360.worldbank.org/en/economy/GIB" xr:uid="{5C2354D0-6124-4552-8F6F-933895A27C35}"/>
-    <hyperlink ref="B162" r:id="rId162" display="https://data360.worldbank.org/en/economy/GRC" xr:uid="{71620077-436D-4BC5-9A1D-A20AC503B198}"/>
-    <hyperlink ref="B163" r:id="rId163" display="https://data360.worldbank.org/en/economy/GRL" xr:uid="{9B02A705-26E7-444D-9841-9274B9AB49B2}"/>
-    <hyperlink ref="B164" r:id="rId164" display="https://data360.worldbank.org/en/economy/GUM" xr:uid="{B6F06EB0-BC14-4B2B-84D1-0658CB796A06}"/>
-    <hyperlink ref="B165" r:id="rId165" display="https://data360.worldbank.org/en/economy/GUY" xr:uid="{956768D6-691E-4650-98AE-00C59206677F}"/>
-    <hyperlink ref="B166" r:id="rId166" display="https://data360.worldbank.org/en/economy/HKG" xr:uid="{0E616059-8F3E-433C-B6E5-40D30E90C08F}"/>
-    <hyperlink ref="B167" r:id="rId167" display="https://data360.worldbank.org/en/economy/HUN" xr:uid="{388FBA13-3D68-40EA-AF7B-B6BA73FCE5F7}"/>
-    <hyperlink ref="B168" r:id="rId168" display="https://data360.worldbank.org/en/economy/ISL" xr:uid="{B2E8D066-D48A-4E31-9142-1AC80D4B9861}"/>
-    <hyperlink ref="B169" r:id="rId169" display="https://data360.worldbank.org/en/economy/IRL" xr:uid="{9320E0A9-CF74-419C-B1EA-622EC0AC8AC6}"/>
-    <hyperlink ref="B170" r:id="rId170" display="https://data360.worldbank.org/en/economy/IMN" xr:uid="{D28A54E9-C9E8-4530-B438-F80AB8388C21}"/>
-    <hyperlink ref="B171" r:id="rId171" display="https://data360.worldbank.org/en/economy/ISR" xr:uid="{8BCCDB40-FD26-4718-A97F-9553A914B632}"/>
-    <hyperlink ref="B172" r:id="rId172" display="https://data360.worldbank.org/en/economy/ITA" xr:uid="{620DE45D-4F67-4AE8-8C74-CE98B9204B0F}"/>
-    <hyperlink ref="B173" r:id="rId173" display="https://data360.worldbank.org/en/economy/JPN" xr:uid="{9C9E49CF-63DB-4C83-B7C2-18B12D70B82E}"/>
-    <hyperlink ref="B174" r:id="rId174" display="https://data360.worldbank.org/en/economy/KOR" xr:uid="{4389B6E6-D1F3-451F-A7EE-AC453FBFCA68}"/>
-    <hyperlink ref="B175" r:id="rId175" display="https://data360.worldbank.org/en/economy/KWT" xr:uid="{362F427C-0974-4E47-AC7B-BCDCE08EE865}"/>
-    <hyperlink ref="B176" r:id="rId176" display="https://data360.worldbank.org/en/economy/LVA" xr:uid="{6B979FF6-CC16-4FE0-BE79-2F5C750C82BB}"/>
-    <hyperlink ref="B177" r:id="rId177" display="https://data360.worldbank.org/en/economy/LIE" xr:uid="{D6C92CDF-A059-4593-8C2C-796F0B51FCA0}"/>
-    <hyperlink ref="B178" r:id="rId178" display="https://data360.worldbank.org/en/economy/LTU" xr:uid="{02B2978E-9CBD-48AD-8E85-0454073D902F}"/>
-    <hyperlink ref="B179" r:id="rId179" display="https://data360.worldbank.org/en/economy/LUX" xr:uid="{9EB4EC5D-7789-4570-A694-0428B8C51CA7}"/>
-    <hyperlink ref="B180" r:id="rId180" display="https://data360.worldbank.org/en/economy/MAC" xr:uid="{6F1A8977-9B2F-42F5-B521-6DADD67311B7}"/>
-    <hyperlink ref="B181" r:id="rId181" display="https://data360.worldbank.org/en/economy/MLT" xr:uid="{93A65A63-E215-43F4-8CF6-83B202ADD99D}"/>
-    <hyperlink ref="B182" r:id="rId182" display="https://data360.worldbank.org/en/economy/MCO" xr:uid="{512B6304-3DC1-4997-BFAE-5F7C4F40D15B}"/>
-    <hyperlink ref="B183" r:id="rId183" display="https://data360.worldbank.org/en/economy/NRU" xr:uid="{18044CFC-7BEE-4FAB-8858-E99FB8450239}"/>
-    <hyperlink ref="B184" r:id="rId184" display="https://data360.worldbank.org/en/economy/NLD" xr:uid="{82EF5AF3-4BF7-4337-A6B6-D9F084F83235}"/>
-    <hyperlink ref="B185" r:id="rId185" display="https://data360.worldbank.org/en/economy/NCL" xr:uid="{8010EC0C-F0B9-4FE2-ABB3-3DCB56251E21}"/>
-    <hyperlink ref="B186" r:id="rId186" display="https://data360.worldbank.org/en/economy/NZL" xr:uid="{21BB8AC5-1DFC-49EB-B3BC-B761E1E9F0BF}"/>
-    <hyperlink ref="B187" r:id="rId187" display="https://data360.worldbank.org/en/economy/MNP" xr:uid="{296E232D-FF56-4A25-9597-74BA9DFDD697}"/>
-    <hyperlink ref="B188" r:id="rId188" display="https://data360.worldbank.org/en/economy/NOR" xr:uid="{F216B099-581B-4AF0-809E-24EFB715521D}"/>
-    <hyperlink ref="B189" r:id="rId189" display="https://data360.worldbank.org/en/economy/OMN" xr:uid="{5618BE0E-A89A-4460-B793-D5E840A358FE}"/>
-    <hyperlink ref="B190" r:id="rId190" display="https://data360.worldbank.org/en/economy/PLW" xr:uid="{78F5003C-FB66-45A7-B4CF-435F5FCB8A30}"/>
-    <hyperlink ref="B191" r:id="rId191" display="https://data360.worldbank.org/en/economy/PAN" xr:uid="{7E45C073-1A0C-4D67-ADB1-6BC5ACD5BE42}"/>
-    <hyperlink ref="B192" r:id="rId192" display="https://data360.worldbank.org/en/economy/POL" xr:uid="{B567FEF7-4937-4E1E-849D-54C35DB18FDD}"/>
-    <hyperlink ref="B193" r:id="rId193" display="https://data360.worldbank.org/en/economy/PRT" xr:uid="{8DA13CED-CD85-4C86-AEB4-36A3116BBCF6}"/>
-    <hyperlink ref="B194" r:id="rId194" display="https://data360.worldbank.org/en/economy/PRI" xr:uid="{CBCED7E5-71C4-4A8E-9EC2-65FDBA8BFC25}"/>
-    <hyperlink ref="B195" r:id="rId195" display="https://data360.worldbank.org/en/economy/QAT" xr:uid="{CEFC3359-6CB2-4E26-A5E4-C9999B68C34B}"/>
-    <hyperlink ref="B196" r:id="rId196" display="https://data360.worldbank.org/en/economy/ROU" xr:uid="{517472C3-68E2-4DEA-AA95-936D92730258}"/>
-    <hyperlink ref="B197" r:id="rId197" display="https://data360.worldbank.org/en/economy/RUS" xr:uid="{C295E512-BF71-465B-A55E-85538E117B03}"/>
-    <hyperlink ref="B198" r:id="rId198" display="https://data360.worldbank.org/en/economy/SMR" xr:uid="{AFA36D9B-A869-4241-932A-7FCA99F6A8DF}"/>
-    <hyperlink ref="B199" r:id="rId199" display="https://data360.worldbank.org/en/economy/SAU" xr:uid="{3D49B7EA-F86F-432E-AADD-04CD6C8362AB}"/>
-    <hyperlink ref="B200" r:id="rId200" display="https://data360.worldbank.org/en/economy/SYC" xr:uid="{D0373057-E473-493C-BBF2-79643753F8EF}"/>
-    <hyperlink ref="B201" r:id="rId201" display="https://data360.worldbank.org/en/economy/SGP" xr:uid="{C8DED8C7-CDF8-448A-931A-FACB3F2C927A}"/>
-    <hyperlink ref="B202" r:id="rId202" display="https://data360.worldbank.org/en/economy/SXM" xr:uid="{D118D970-65BA-400C-BB03-95947B3E8374}"/>
-    <hyperlink ref="B203" r:id="rId203" display="https://data360.worldbank.org/en/economy/SVK" xr:uid="{FD361989-D0D5-454D-B062-99982B1FDF25}"/>
-    <hyperlink ref="B204" r:id="rId204" display="https://data360.worldbank.org/en/economy/SVN" xr:uid="{D73A2C97-502F-4669-92DC-1A1F3707A2AC}"/>
-    <hyperlink ref="B205" r:id="rId205" display="https://data360.worldbank.org/en/economy/ESP" xr:uid="{4488791C-2AB1-4E33-BAA0-DD6FE09DD5BB}"/>
-    <hyperlink ref="B206" r:id="rId206" display="https://data360.worldbank.org/en/economy/KNA" xr:uid="{2350F487-7BCE-4509-998E-4F6F5B38EEFE}"/>
-    <hyperlink ref="B207" r:id="rId207" display="https://data360.worldbank.org/en/economy/MAF" xr:uid="{02402537-1532-4FDD-8972-78FF04FA0EA1}"/>
-    <hyperlink ref="B208" r:id="rId208" display="https://data360.worldbank.org/en/economy/SWE" xr:uid="{4201CA60-C4DC-4B78-8ABA-5BB8396AE529}"/>
-    <hyperlink ref="B209" r:id="rId209" display="https://data360.worldbank.org/en/economy/CHE" xr:uid="{BEDD7F3A-1A8C-4123-A59F-AFC01C313B2C}"/>
-    <hyperlink ref="B210" r:id="rId210" display="https://data360.worldbank.org/en/economy/TWN" xr:uid="{0B8110AA-DFBE-49B7-8FCF-4882D74DEE56}"/>
-    <hyperlink ref="B211" r:id="rId211" display="https://data360.worldbank.org/en/economy/TTO" xr:uid="{D9BB7EDA-3510-4B76-BEAF-F30C548A2FCA}"/>
-    <hyperlink ref="B212" r:id="rId212" display="https://data360.worldbank.org/en/economy/TCA" xr:uid="{24F1CB7F-17AF-4BB6-BE50-0AB1FBE25040}"/>
-    <hyperlink ref="B213" r:id="rId213" display="https://data360.worldbank.org/en/economy/ARE" xr:uid="{9FEDCF52-4C22-449B-9F6A-E7D23E30D956}"/>
-    <hyperlink ref="B214" r:id="rId214" display="https://data360.worldbank.org/en/economy/GBR" xr:uid="{6FCBF94D-3859-4738-B0FC-282D69AD4DBE}"/>
-    <hyperlink ref="B215" r:id="rId215" display="https://data360.worldbank.org/en/economy/USA" xr:uid="{B8F2DF76-D3D2-4E06-8BA5-1A5ED3B292A9}"/>
-    <hyperlink ref="B216" r:id="rId216" display="https://data360.worldbank.org/en/economy/URY" xr:uid="{981CC7D8-DA9D-482D-8252-1E83EE8ECAEF}"/>
-    <hyperlink ref="B217" r:id="rId217" display="https://data360.worldbank.org/en/economy/VEN" xr:uid="{0E6D49EC-5EDF-45BF-97BB-D851D0395FF1}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://data360.worldbank.org/en/economy/AFG" xr:uid="{9C8FA351-6861-44B9-A606-2B2F61574811}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://data360.worldbank.org/en/economy/BFA" xr:uid="{CB95DEF1-AC3F-4C22-B648-559BD323D6FE}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://data360.worldbank.org/en/economy/BDI" xr:uid="{83A1EE3C-CA7C-462E-A153-BAC10B4104EB}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://data360.worldbank.org/en/economy/CAF" xr:uid="{C4787BA8-AD8B-497B-A6D5-F8A7F827583D}"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://data360.worldbank.org/en/economy/TCD" xr:uid="{6A45B77B-A0D6-43EB-A03E-69F2BAC5E3F9}"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://data360.worldbank.org/en/economy/COD" xr:uid="{98407551-2C63-4AA0-867E-686171E154B4}"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://data360.worldbank.org/en/economy/ERI" xr:uid="{A2F33C24-405D-48B4-8A03-6532712DDDFC}"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://data360.worldbank.org/en/economy/ETH" xr:uid="{127EF7B1-ECDD-48F1-A2EE-901703DEFE42}"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://data360.worldbank.org/en/economy/GMB" xr:uid="{69071FBA-C38C-4458-87D8-A6FF288009B3}"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://data360.worldbank.org/en/economy/GNB" xr:uid="{F3B0BB77-C97A-4E87-AA3C-8D67FA31FD50}"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://data360.worldbank.org/en/economy/PRK" xr:uid="{D2846042-E613-41B0-BB80-0591B49E3C03}"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://data360.worldbank.org/en/economy/LBR" xr:uid="{C8A75F5D-2510-42EE-B2D1-FDE6C29257B6}"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://data360.worldbank.org/en/economy/MDG" xr:uid="{9F7A1B7D-0492-4F5D-A3E0-44DCCBC3CE51}"/>
+    <hyperlink ref="B15" r:id="rId14" display="https://data360.worldbank.org/en/economy/MWI" xr:uid="{42BED76A-6D54-45A3-87B1-EC6B27E820B3}"/>
+    <hyperlink ref="B16" r:id="rId15" display="https://data360.worldbank.org/en/economy/MLI" xr:uid="{BFDC76CB-EC48-4A44-9A23-0090CCA1F2C4}"/>
+    <hyperlink ref="B17" r:id="rId16" display="https://data360.worldbank.org/en/economy/MOZ" xr:uid="{1773DC18-9D23-427F-9F9A-6002A457E55E}"/>
+    <hyperlink ref="B18" r:id="rId17" display="https://data360.worldbank.org/en/economy/NER" xr:uid="{7E42C47D-CDF3-4A46-91DB-5023102FC092}"/>
+    <hyperlink ref="B19" r:id="rId18" display="https://data360.worldbank.org/en/economy/RWA" xr:uid="{0C9509E2-C37F-4477-81B0-5080644BD4C0}"/>
+    <hyperlink ref="B20" r:id="rId19" display="https://data360.worldbank.org/en/economy/SLE" xr:uid="{6CEC869F-1A04-487F-A3F8-52A4417D6325}"/>
+    <hyperlink ref="B21" r:id="rId20" display="https://data360.worldbank.org/en/economy/SOM" xr:uid="{53E43F47-9D84-4CEB-A79D-69AE751C83D9}"/>
+    <hyperlink ref="B22" r:id="rId21" display="https://data360.worldbank.org/en/economy/SSD" xr:uid="{40FE9E36-5696-441F-9008-5E12D579ACF1}"/>
+    <hyperlink ref="B23" r:id="rId22" display="https://data360.worldbank.org/en/economy/SDN" xr:uid="{B7F266AB-1AB1-45F7-AC0C-F3BCAE80BC16}"/>
+    <hyperlink ref="B24" r:id="rId23" display="https://data360.worldbank.org/en/economy/SYR" xr:uid="{6D42600D-697E-4626-98C7-77D3ADCA88C1}"/>
+    <hyperlink ref="B25" r:id="rId24" display="https://data360.worldbank.org/en/economy/TGO" xr:uid="{65154E8D-FE82-4D79-AD17-CFFE6FA4C6CC}"/>
+    <hyperlink ref="B26" r:id="rId25" display="https://data360.worldbank.org/en/economy/UGA" xr:uid="{627D3AE8-13B2-42D8-B008-B2880EBEADDD}"/>
+    <hyperlink ref="B27" r:id="rId26" display="https://data360.worldbank.org/en/economy/YEM" xr:uid="{64D0B793-0B0E-42D4-A9D1-B7C2E3170293}"/>
+    <hyperlink ref="B28" r:id="rId27" display="https://data360.worldbank.org/en/economy/AGO" xr:uid="{AE75EF68-3C09-4BA9-8CD1-6F3030680619}"/>
+    <hyperlink ref="B29" r:id="rId28" display="https://data360.worldbank.org/en/economy/BGD" xr:uid="{FE527036-C1AC-4FA1-A781-87D767CA9854}"/>
+    <hyperlink ref="B30" r:id="rId29" display="https://data360.worldbank.org/en/economy/BEN" xr:uid="{AAD600FB-9DC1-487B-B037-CC5A41FD4BC2}"/>
+    <hyperlink ref="B31" r:id="rId30" display="https://data360.worldbank.org/en/economy/BTN" xr:uid="{F57964C5-11A7-4B30-9E68-BCDF7550D760}"/>
+    <hyperlink ref="B32" r:id="rId31" display="https://data360.worldbank.org/en/economy/BOL" xr:uid="{7478ABB3-3AD8-4A0C-B786-5C95276E0699}"/>
+    <hyperlink ref="B33" r:id="rId32" display="https://data360.worldbank.org/en/economy/CPV" xr:uid="{5B92BD5B-CE04-4B7D-B859-C54DF6613F6B}"/>
+    <hyperlink ref="B34" r:id="rId33" display="https://data360.worldbank.org/en/economy/KHM" xr:uid="{E82B406A-E100-4FB2-9C17-E8BD3B99DFBF}"/>
+    <hyperlink ref="B35" r:id="rId34" display="https://data360.worldbank.org/en/economy/CMR" xr:uid="{6190AD66-427D-4C25-975E-CA5D0E3444FE}"/>
+    <hyperlink ref="B36" r:id="rId35" display="https://data360.worldbank.org/en/economy/COM" xr:uid="{2CB4915D-EE0C-4EBE-A177-275048FDF1C5}"/>
+    <hyperlink ref="B37" r:id="rId36" display="https://data360.worldbank.org/en/economy/COG" xr:uid="{11D803E2-5185-423E-B3B2-D22F813FD203}"/>
+    <hyperlink ref="B38" r:id="rId37" display="https://data360.worldbank.org/en/economy/CIV" xr:uid="{C81675EC-E0C7-4D3F-A2EC-7120EBF21319}"/>
+    <hyperlink ref="B39" r:id="rId38" display="https://data360.worldbank.org/en/economy/DJI" xr:uid="{A49D96AC-FFEA-43F0-9211-65CD6D10F13D}"/>
+    <hyperlink ref="B40" r:id="rId39" display="https://data360.worldbank.org/en/economy/EGY" xr:uid="{DA4B6517-4D1B-4736-BBBC-353F036E2997}"/>
+    <hyperlink ref="B41" r:id="rId40" display="https://data360.worldbank.org/en/economy/SWZ" xr:uid="{7709339D-5BAC-4C08-A1FF-0C93241C03CB}"/>
+    <hyperlink ref="B42" r:id="rId41" display="https://data360.worldbank.org/en/economy/GHA" xr:uid="{4BA1D3DB-6998-4D97-B092-0C48C155CD1A}"/>
+    <hyperlink ref="B43" r:id="rId42" display="https://data360.worldbank.org/en/economy/GIN" xr:uid="{B21C43C4-D4F9-4462-B7EE-828F0B896865}"/>
+    <hyperlink ref="B44" r:id="rId43" display="https://data360.worldbank.org/en/economy/HTI" xr:uid="{23B211B6-E0EA-4620-B323-3E0E1CF50C01}"/>
+    <hyperlink ref="B45" r:id="rId44" display="https://data360.worldbank.org/en/economy/HND" xr:uid="{9CAAA413-B0DC-4FC0-A984-CB087588A6C8}"/>
+    <hyperlink ref="B46" r:id="rId45" display="https://data360.worldbank.org/en/economy/IND" xr:uid="{D921149E-3EA0-4072-A3FC-1D26B5534539}"/>
+    <hyperlink ref="B47" r:id="rId46" display="https://data360.worldbank.org/en/economy/JOR" xr:uid="{E58F8218-3435-4268-B5AD-BF6078CCF110}"/>
+    <hyperlink ref="B48" r:id="rId47" display="https://data360.worldbank.org/en/economy/KEN" xr:uid="{7CD2E8BE-5031-4D21-A94F-2565DFD2089B}"/>
+    <hyperlink ref="B49" r:id="rId48" display="https://data360.worldbank.org/en/economy/KIR" xr:uid="{74DAD1E2-CF79-4F5F-9BB8-6B3CEDDA9F26}"/>
+    <hyperlink ref="B50" r:id="rId49" display="https://data360.worldbank.org/en/economy/KGZ" xr:uid="{C68E8310-263A-4982-B975-DD357EB3701A}"/>
+    <hyperlink ref="B51" r:id="rId50" display="https://data360.worldbank.org/en/economy/LAO" xr:uid="{53E43AC9-6AEA-4657-BAB4-D02A51893BE2}"/>
+    <hyperlink ref="B52" r:id="rId51" display="https://data360.worldbank.org/en/economy/LBN" xr:uid="{64237C4D-BE95-4484-BF97-6B3E69D1F00A}"/>
+    <hyperlink ref="B53" r:id="rId52" display="https://data360.worldbank.org/en/economy/LSO" xr:uid="{4BC22F4D-FC3B-48EC-81B4-62843A20AE26}"/>
+    <hyperlink ref="B54" r:id="rId53" display="https://data360.worldbank.org/en/economy/MRT" xr:uid="{402502FE-C882-401D-8FCB-E90751973F60}"/>
+    <hyperlink ref="B55" r:id="rId54" display="https://data360.worldbank.org/en/economy/FSM" xr:uid="{F50409C4-92A8-4F39-92CF-29D2A7306A3D}"/>
+    <hyperlink ref="B56" r:id="rId55" display="https://data360.worldbank.org/en/economy/MAR" xr:uid="{ECD1C270-97C1-47E3-A218-3F6BAF7AB0AF}"/>
+    <hyperlink ref="B57" r:id="rId56" display="https://data360.worldbank.org/en/economy/MMR" xr:uid="{8AF884F2-A854-4F2E-92F5-9573FDB06EEA}"/>
+    <hyperlink ref="B58" r:id="rId57" display="https://data360.worldbank.org/en/economy/NPL" xr:uid="{C8234EFE-B572-445F-8BCA-2BE4E5EE8F71}"/>
+    <hyperlink ref="B59" r:id="rId58" display="https://data360.worldbank.org/en/economy/NIC" xr:uid="{EF0149FF-8BD0-4B06-9BCA-0A6170100D8D}"/>
+    <hyperlink ref="B60" r:id="rId59" display="https://data360.worldbank.org/en/economy/NGA" xr:uid="{18994D52-9BCE-471B-BB08-06230E3C393B}"/>
+    <hyperlink ref="B61" r:id="rId60" display="https://data360.worldbank.org/en/economy/PAK" xr:uid="{2202B519-99D6-49AB-B105-EDD514868908}"/>
+    <hyperlink ref="B62" r:id="rId61" display="https://data360.worldbank.org/en/economy/PNG" xr:uid="{888FBF8A-5F49-4836-AF39-99C1E5C058A2}"/>
+    <hyperlink ref="B63" r:id="rId62" display="https://data360.worldbank.org/en/economy/PHL" xr:uid="{18CA424B-AFAA-4E37-90D6-B20EE425DC99}"/>
+    <hyperlink ref="B64" r:id="rId63" display="https://data360.worldbank.org/en/economy/WSM" xr:uid="{5FC72FF5-ACBF-4BEF-B2A6-867F6507ADC6}"/>
+    <hyperlink ref="B65" r:id="rId64" display="https://data360.worldbank.org/en/economy/STP" xr:uid="{0F137C81-9F17-4185-834A-C0344E8391B5}"/>
+    <hyperlink ref="B66" r:id="rId65" display="https://data360.worldbank.org/en/economy/SEN" xr:uid="{DC4D5EDA-1C1F-4B6F-8C47-E9865788D7A1}"/>
+    <hyperlink ref="B67" r:id="rId66" display="https://data360.worldbank.org/en/economy/SLB" xr:uid="{91943838-223F-434C-A213-60A70E491FFB}"/>
+    <hyperlink ref="B68" r:id="rId67" display="https://data360.worldbank.org/en/economy/LKA" xr:uid="{3F5DB72D-CF19-4F74-8110-7343AF4A139B}"/>
+    <hyperlink ref="B69" r:id="rId68" display="https://data360.worldbank.org/en/economy/TJK" xr:uid="{9483916A-D1EC-4FCE-843D-E7CBCC90A5BE}"/>
+    <hyperlink ref="B70" r:id="rId69" display="https://data360.worldbank.org/en/economy/TZA" xr:uid="{7B082CDF-8A60-4B2A-B4A1-B6E033840875}"/>
+    <hyperlink ref="B71" r:id="rId70" display="https://data360.worldbank.org/en/economy/TLS" xr:uid="{B40813DD-B034-4893-B3C7-3F2F7F87150D}"/>
+    <hyperlink ref="B72" r:id="rId71" display="https://data360.worldbank.org/en/economy/TUN" xr:uid="{CAA4D455-41B5-41CA-8188-384171A7D8C4}"/>
+    <hyperlink ref="B73" r:id="rId72" display="https://data360.worldbank.org/en/economy/UZB" xr:uid="{359D94A5-1873-48E4-AF55-AF434F385C38}"/>
+    <hyperlink ref="B74" r:id="rId73" display="https://data360.worldbank.org/en/economy/VUT" xr:uid="{AF2DF969-7623-4EDE-8EC6-E320B426BBF4}"/>
+    <hyperlink ref="B75" r:id="rId74" display="https://data360.worldbank.org/en/economy/VNM" xr:uid="{D7E67A2F-F434-4099-A8B4-82C3487909E3}"/>
+    <hyperlink ref="B76" r:id="rId75" display="https://data360.worldbank.org/en/economy/PSE" xr:uid="{1B6DF475-DA20-4301-8C86-6DB1D42FFDFB}"/>
+    <hyperlink ref="B77" r:id="rId76" display="https://data360.worldbank.org/en/economy/ZMB" xr:uid="{688A864E-70B9-486A-AEF1-D06951074990}"/>
+    <hyperlink ref="B78" r:id="rId77" display="https://data360.worldbank.org/en/economy/ZWE" xr:uid="{20FC4437-2246-48BF-BA03-09D08CCCF9E3}"/>
+    <hyperlink ref="B79" r:id="rId78" display="https://data360.worldbank.org/en/economy/ALB" xr:uid="{AE832C20-8ECD-4821-9C24-3EC4CB7F4B02}"/>
+    <hyperlink ref="B80" r:id="rId79" display="https://data360.worldbank.org/en/economy/DZA" xr:uid="{50297C06-A2A9-4DBF-B194-FBA48EDFC527}"/>
+    <hyperlink ref="B81" r:id="rId80" display="https://data360.worldbank.org/en/economy/ARG" xr:uid="{22373742-932B-4F19-94B6-25B67CEA30DE}"/>
+    <hyperlink ref="B82" r:id="rId81" display="https://data360.worldbank.org/en/economy/ARM" xr:uid="{4321E270-A27C-4A65-B1A3-B19E368B37EB}"/>
+    <hyperlink ref="B83" r:id="rId82" display="https://data360.worldbank.org/en/economy/AZE" xr:uid="{6DF0431A-9993-42D7-B959-12E8965D19B6}"/>
+    <hyperlink ref="B84" r:id="rId83" display="https://data360.worldbank.org/en/economy/BLR" xr:uid="{11C73914-FCD7-4883-8084-0241F3DF0904}"/>
+    <hyperlink ref="B85" r:id="rId84" display="https://data360.worldbank.org/en/economy/BLZ" xr:uid="{C6312B71-5051-4A0B-ACB9-14575B30D014}"/>
+    <hyperlink ref="B86" r:id="rId85" display="https://data360.worldbank.org/en/economy/BIH" xr:uid="{E5567FD2-1030-4023-8E77-ACD07DFC31C9}"/>
+    <hyperlink ref="B87" r:id="rId86" display="https://data360.worldbank.org/en/economy/BWA" xr:uid="{EC0C9E26-32A3-4AB6-B4D4-F73E9D0A6D4B}"/>
+    <hyperlink ref="B88" r:id="rId87" display="https://data360.worldbank.org/en/economy/BRA" xr:uid="{7E21B185-012C-44C5-B5EC-9B65119734DD}"/>
+    <hyperlink ref="B89" r:id="rId88" display="https://data360.worldbank.org/en/economy/CHN" xr:uid="{58CAEEA7-2E30-46F3-B3E0-4C30275660E9}"/>
+    <hyperlink ref="B90" r:id="rId89" display="https://data360.worldbank.org/en/economy/COL" xr:uid="{84EF8F58-0FF9-494B-A1A1-0F94F825854F}"/>
+    <hyperlink ref="B91" r:id="rId90" display="https://data360.worldbank.org/en/economy/CRI" xr:uid="{1D985A04-690D-4A00-8A1F-EC3952E5D4CC}"/>
+    <hyperlink ref="B92" r:id="rId91" display="https://data360.worldbank.org/en/economy/CUB" xr:uid="{2CA4B49F-A140-4162-B8AE-9493E712EC3A}"/>
+    <hyperlink ref="B93" r:id="rId92" display="https://data360.worldbank.org/en/economy/DMA" xr:uid="{CDFAC7E7-6B27-42C2-9FB7-F493306A56E1}"/>
+    <hyperlink ref="B94" r:id="rId93" display="https://data360.worldbank.org/en/economy/DOM" xr:uid="{B1762610-FE36-4732-B033-6288256A08C4}"/>
+    <hyperlink ref="B95" r:id="rId94" display="https://data360.worldbank.org/en/economy/ECU" xr:uid="{CA9BB8CB-B2FC-46CB-9201-8FEC67A26E7F}"/>
+    <hyperlink ref="B96" r:id="rId95" display="https://data360.worldbank.org/en/economy/SLV" xr:uid="{3ED19662-AC85-40D2-8247-B34C861610B7}"/>
+    <hyperlink ref="B97" r:id="rId96" display="https://data360.worldbank.org/en/economy/GNQ" xr:uid="{964D4429-1133-43F5-B098-F72112FA88CC}"/>
+    <hyperlink ref="B98" r:id="rId97" display="https://data360.worldbank.org/en/economy/FJI" xr:uid="{1678CC8B-F28B-4794-96EE-40F1F689CD9F}"/>
+    <hyperlink ref="B99" r:id="rId98" display="https://data360.worldbank.org/en/economy/GAB" xr:uid="{34492127-79FA-4091-9382-4B7428A6B33D}"/>
+    <hyperlink ref="B100" r:id="rId99" display="https://data360.worldbank.org/en/economy/GEO" xr:uid="{B2D244C2-8DDB-43AC-AF79-AC2CEDD669C2}"/>
+    <hyperlink ref="B101" r:id="rId100" display="https://data360.worldbank.org/en/economy/GRD" xr:uid="{9CFFB5BD-B0A1-4268-A304-D7DFBD68F2B9}"/>
+    <hyperlink ref="B102" r:id="rId101" display="https://data360.worldbank.org/en/economy/GTM" xr:uid="{F7CD8F89-5807-44BF-81BD-450045E39AF7}"/>
+    <hyperlink ref="B103" r:id="rId102" display="https://data360.worldbank.org/en/economy/IDN" xr:uid="{5F732F74-6A18-433F-A265-D7F57A4A153F}"/>
+    <hyperlink ref="B104" r:id="rId103" display="https://data360.worldbank.org/en/economy/IRN" xr:uid="{DD6723C5-9B5B-43B9-B739-A9C4F17FAFDC}"/>
+    <hyperlink ref="B105" r:id="rId104" display="https://data360.worldbank.org/en/economy/IRQ" xr:uid="{41EA9A82-4054-4776-B3ED-BFCD9498CE90}"/>
+    <hyperlink ref="B106" r:id="rId105" display="https://data360.worldbank.org/en/economy/JAM" xr:uid="{B262AF50-74D7-46B2-BAA5-3CC6FADD6DD4}"/>
+    <hyperlink ref="B107" r:id="rId106" display="https://data360.worldbank.org/en/economy/KAZ" xr:uid="{C4190620-D166-41C8-8B9E-BA86BE2EE5A9}"/>
+    <hyperlink ref="B108" r:id="rId107" display="https://data360.worldbank.org/en/economy/XKX" xr:uid="{365F5900-F5AA-4D57-AB6C-F5275B21844B}"/>
+    <hyperlink ref="B109" r:id="rId108" display="https://data360.worldbank.org/en/economy/LBY" xr:uid="{79F9766D-EE8F-4527-99E5-7C18466CEE96}"/>
+    <hyperlink ref="B110" r:id="rId109" display="https://data360.worldbank.org/en/economy/MYS" xr:uid="{D4E7950E-C1F2-4C24-BE11-98A94004B9E8}"/>
+    <hyperlink ref="B111" r:id="rId110" display="https://data360.worldbank.org/en/economy/MDV" xr:uid="{528FC446-A85A-409F-A3CE-20AC2D1CC359}"/>
+    <hyperlink ref="B112" r:id="rId111" display="https://data360.worldbank.org/en/economy/MHL" xr:uid="{C4B656C6-F8B8-4E66-9688-5CDC950E80DA}"/>
+    <hyperlink ref="B113" r:id="rId112" display="https://data360.worldbank.org/en/economy/MUS" xr:uid="{51A6AEC6-7C2F-4DCB-A4A1-E380F8DA3D12}"/>
+    <hyperlink ref="B114" r:id="rId113" display="https://data360.worldbank.org/en/economy/MEX" xr:uid="{325B29B6-509C-4E13-B3E0-8022DBF87FF9}"/>
+    <hyperlink ref="B115" r:id="rId114" display="https://data360.worldbank.org/en/economy/MDA" xr:uid="{3D405863-B738-4AAF-B5F8-269CBDE18C8D}"/>
+    <hyperlink ref="B116" r:id="rId115" display="https://data360.worldbank.org/en/economy/MNG" xr:uid="{70BE62DE-211F-43D8-9241-7E221446716B}"/>
+    <hyperlink ref="B117" r:id="rId116" display="https://data360.worldbank.org/en/economy/MNE" xr:uid="{3FB6900C-D903-4B0E-86AA-3777EE1A4184}"/>
+    <hyperlink ref="B118" r:id="rId117" display="https://data360.worldbank.org/en/economy/NAM" xr:uid="{947FDD34-1926-42E7-9190-A7AE0AA5C79D}"/>
+    <hyperlink ref="B119" r:id="rId118" display="https://data360.worldbank.org/en/economy/MKD" xr:uid="{7A11E8EC-52A9-42C5-9C8F-9A25E6C71E62}"/>
+    <hyperlink ref="B120" r:id="rId119" display="https://data360.worldbank.org/en/economy/PRY" xr:uid="{BFF17003-C129-4CCE-BD1D-871B04CEF5E4}"/>
+    <hyperlink ref="B121" r:id="rId120" display="https://data360.worldbank.org/en/economy/PER" xr:uid="{C77A347B-EB61-4EFE-A1CF-9184313059DD}"/>
+    <hyperlink ref="B122" r:id="rId121" display="https://data360.worldbank.org/en/economy/SRB" xr:uid="{C65145ED-4953-405B-972B-FE6557EDCAF3}"/>
+    <hyperlink ref="B123" r:id="rId122" display="https://data360.worldbank.org/en/economy/ZAF" xr:uid="{D7A7A7F7-F4C8-4034-B441-4B9758A00BB1}"/>
+    <hyperlink ref="B124" r:id="rId123" display="https://data360.worldbank.org/en/economy/LCA" xr:uid="{F22FE9CE-0AEE-465B-9E9B-DAF3AB9DC09E}"/>
+    <hyperlink ref="B125" r:id="rId124" display="https://data360.worldbank.org/en/economy/VCT" xr:uid="{CB62640A-D795-42F1-A672-E8BA310EB8CC}"/>
+    <hyperlink ref="B126" r:id="rId125" display="https://data360.worldbank.org/en/economy/SUR" xr:uid="{295B3BA7-634B-4A0C-B08C-15154632CD96}"/>
+    <hyperlink ref="B127" r:id="rId126" display="https://data360.worldbank.org/en/economy/THA" xr:uid="{CFE80AF0-636A-404A-B110-80AD9F584ED7}"/>
+    <hyperlink ref="B128" r:id="rId127" display="https://data360.worldbank.org/en/economy/TON" xr:uid="{1B0CA643-8919-4D53-A864-37C2FB0AD472}"/>
+    <hyperlink ref="B129" r:id="rId128" display="https://data360.worldbank.org/en/economy/TUR" xr:uid="{8EDAA0C4-3F24-462E-8905-B5E7997DF9FB}"/>
+    <hyperlink ref="B130" r:id="rId129" display="https://data360.worldbank.org/en/economy/TKM" xr:uid="{20E84A6A-DFFA-42AE-B971-43D4CF5337BD}"/>
+    <hyperlink ref="B131" r:id="rId130" display="https://data360.worldbank.org/en/economy/TUV" xr:uid="{5A4961B9-6A71-442C-90D0-33D6911CC5D0}"/>
+    <hyperlink ref="B132" r:id="rId131" display="https://data360.worldbank.org/en/economy/UKR" xr:uid="{6FF2702B-F54F-4E36-AB2A-E6B160DE8216}"/>
+    <hyperlink ref="B133" r:id="rId132" display="https://data360.worldbank.org/en/economy/ASM" xr:uid="{D4DD5B38-AEBD-41D6-A9D5-8A8A3031D070}"/>
+    <hyperlink ref="B134" r:id="rId133" display="https://data360.worldbank.org/en/economy/AND" xr:uid="{C03E1668-E151-41E7-B33C-33CB2DFE11FB}"/>
+    <hyperlink ref="B135" r:id="rId134" display="https://data360.worldbank.org/en/economy/ATG" xr:uid="{1D57F9A2-ABFC-4A6D-A068-6D75F22E047A}"/>
+    <hyperlink ref="B136" r:id="rId135" display="https://data360.worldbank.org/en/economy/ABW" xr:uid="{CE1514DB-C796-4379-9E37-DB638CF78410}"/>
+    <hyperlink ref="B137" r:id="rId136" display="https://data360.worldbank.org/en/economy/AUS" xr:uid="{F46134E6-0803-4ED3-A58C-129CC23FAD8D}"/>
+    <hyperlink ref="B138" r:id="rId137" display="https://data360.worldbank.org/en/economy/AUT" xr:uid="{5F1BDE1B-E6A6-4D1D-AFA2-55C5BB037032}"/>
+    <hyperlink ref="B139" r:id="rId138" display="https://data360.worldbank.org/en/economy/BHS" xr:uid="{24437C15-A085-4799-B1D6-E66BDDF34AEE}"/>
+    <hyperlink ref="B140" r:id="rId139" display="https://data360.worldbank.org/en/economy/BHR" xr:uid="{6ABA3152-B77F-4794-B1E4-10C23B956B59}"/>
+    <hyperlink ref="B141" r:id="rId140" display="https://data360.worldbank.org/en/economy/BRB" xr:uid="{B82D9FE0-147F-4D7F-B3A6-76AECB697AE6}"/>
+    <hyperlink ref="B142" r:id="rId141" display="https://data360.worldbank.org/en/economy/BEL" xr:uid="{EF9068B5-A3D1-4482-9509-81E902016400}"/>
+    <hyperlink ref="B143" r:id="rId142" display="https://data360.worldbank.org/en/economy/BMU" xr:uid="{2D772BF0-7EF2-4569-92D1-3E133A4FFDC7}"/>
+    <hyperlink ref="B144" r:id="rId143" display="https://data360.worldbank.org/en/economy/VGB" xr:uid="{0D3CC074-3C66-4815-9A3B-7610DCBAE2C7}"/>
+    <hyperlink ref="B145" r:id="rId144" display="https://data360.worldbank.org/en/economy/BRN" xr:uid="{85513FE1-1EC7-4E01-9A7F-A412C643E0B8}"/>
+    <hyperlink ref="B146" r:id="rId145" display="https://data360.worldbank.org/en/economy/BGR" xr:uid="{AC5D7703-6B4E-4191-BCBF-3F03D0EA0D7D}"/>
+    <hyperlink ref="B147" r:id="rId146" display="https://data360.worldbank.org/en/economy/CAN" xr:uid="{639EF08E-F684-44B1-970D-36911C55847F}"/>
+    <hyperlink ref="B148" r:id="rId147" display="https://data360.worldbank.org/en/economy/CYM" xr:uid="{BDC364CB-5712-44C0-8093-8071FC190395}"/>
+    <hyperlink ref="B149" r:id="rId148" display="https://data360.worldbank.org/en/economy/CHI" xr:uid="{B318D955-1AC8-46F0-9F18-1146DC4442FD}"/>
+    <hyperlink ref="B150" r:id="rId149" display="https://data360.worldbank.org/en/economy/CHL" xr:uid="{EC0BEECB-0184-4C5B-A22D-0D43D832E738}"/>
+    <hyperlink ref="B151" r:id="rId150" display="https://data360.worldbank.org/en/economy/HRV" xr:uid="{5D969C14-ED4C-4BD2-8836-B1C3DFB97678}"/>
+    <hyperlink ref="B152" r:id="rId151" display="https://data360.worldbank.org/en/economy/CUW" xr:uid="{A56F3389-EAEF-43C8-9A36-0C7D9BD835EA}"/>
+    <hyperlink ref="B153" r:id="rId152" display="https://data360.worldbank.org/en/economy/CYP" xr:uid="{6A9AB494-11A4-4DE2-8704-352BDC62DD11}"/>
+    <hyperlink ref="B154" r:id="rId153" display="https://data360.worldbank.org/en/economy/CZE" xr:uid="{81908B8F-7E74-4399-A0CF-6B506202DB15}"/>
+    <hyperlink ref="B155" r:id="rId154" display="https://data360.worldbank.org/en/economy/DNK" xr:uid="{A05DD57A-30DE-4D2E-AC9D-2EF8043E33BD}"/>
+    <hyperlink ref="B156" r:id="rId155" display="https://data360.worldbank.org/en/economy/EST" xr:uid="{A79D8F7A-E699-42E7-B1A8-FB0025D8063F}"/>
+    <hyperlink ref="B157" r:id="rId156" display="https://data360.worldbank.org/en/economy/FRO" xr:uid="{1D5CEC3A-0917-4FF6-8CEE-FD4943F3E229}"/>
+    <hyperlink ref="B158" r:id="rId157" display="https://data360.worldbank.org/en/economy/FIN" xr:uid="{C1DB68FA-E514-4B1D-8BD4-780E8570D91E}"/>
+    <hyperlink ref="B159" r:id="rId158" display="https://data360.worldbank.org/en/economy/FRA" xr:uid="{42DC7DBF-CDA0-465F-AD40-2E0B770EE4B4}"/>
+    <hyperlink ref="B160" r:id="rId159" display="https://data360.worldbank.org/en/economy/PYF" xr:uid="{55EF4D3B-2EC6-4111-B07A-C17AB22F4789}"/>
+    <hyperlink ref="B161" r:id="rId160" display="https://data360.worldbank.org/en/economy/DEU" xr:uid="{5256CF76-2D0C-43C3-843A-E282C15E7380}"/>
+    <hyperlink ref="B162" r:id="rId161" display="https://data360.worldbank.org/en/economy/GIB" xr:uid="{5C2354D0-6124-4552-8F6F-933895A27C35}"/>
+    <hyperlink ref="B163" r:id="rId162" display="https://data360.worldbank.org/en/economy/GRC" xr:uid="{71620077-436D-4BC5-9A1D-A20AC503B198}"/>
+    <hyperlink ref="B164" r:id="rId163" display="https://data360.worldbank.org/en/economy/GRL" xr:uid="{9B02A705-26E7-444D-9841-9274B9AB49B2}"/>
+    <hyperlink ref="B165" r:id="rId164" display="https://data360.worldbank.org/en/economy/GUM" xr:uid="{B6F06EB0-BC14-4B2B-84D1-0658CB796A06}"/>
+    <hyperlink ref="B166" r:id="rId165" display="https://data360.worldbank.org/en/economy/GUY" xr:uid="{956768D6-691E-4650-98AE-00C59206677F}"/>
+    <hyperlink ref="B167" r:id="rId166" display="https://data360.worldbank.org/en/economy/HKG" xr:uid="{0E616059-8F3E-433C-B6E5-40D30E90C08F}"/>
+    <hyperlink ref="B168" r:id="rId167" display="https://data360.worldbank.org/en/economy/HUN" xr:uid="{388FBA13-3D68-40EA-AF7B-B6BA73FCE5F7}"/>
+    <hyperlink ref="B169" r:id="rId168" display="https://data360.worldbank.org/en/economy/ISL" xr:uid="{B2E8D066-D48A-4E31-9142-1AC80D4B9861}"/>
+    <hyperlink ref="B170" r:id="rId169" display="https://data360.worldbank.org/en/economy/IRL" xr:uid="{9320E0A9-CF74-419C-B1EA-622EC0AC8AC6}"/>
+    <hyperlink ref="B171" r:id="rId170" display="https://data360.worldbank.org/en/economy/IMN" xr:uid="{D28A54E9-C9E8-4530-B438-F80AB8388C21}"/>
+    <hyperlink ref="B172" r:id="rId171" display="https://data360.worldbank.org/en/economy/ISR" xr:uid="{8BCCDB40-FD26-4718-A97F-9553A914B632}"/>
+    <hyperlink ref="B173" r:id="rId172" display="https://data360.worldbank.org/en/economy/ITA" xr:uid="{620DE45D-4F67-4AE8-8C74-CE98B9204B0F}"/>
+    <hyperlink ref="B174" r:id="rId173" display="https://data360.worldbank.org/en/economy/JPN" xr:uid="{9C9E49CF-63DB-4C83-B7C2-18B12D70B82E}"/>
+    <hyperlink ref="B175" r:id="rId174" display="https://data360.worldbank.org/en/economy/KOR" xr:uid="{4389B6E6-D1F3-451F-A7EE-AC453FBFCA68}"/>
+    <hyperlink ref="B176" r:id="rId175" display="https://data360.worldbank.org/en/economy/KWT" xr:uid="{362F427C-0974-4E47-AC7B-BCDCE08EE865}"/>
+    <hyperlink ref="B177" r:id="rId176" display="https://data360.worldbank.org/en/economy/LVA" xr:uid="{6B979FF6-CC16-4FE0-BE79-2F5C750C82BB}"/>
+    <hyperlink ref="B178" r:id="rId177" display="https://data360.worldbank.org/en/economy/LIE" xr:uid="{D6C92CDF-A059-4593-8C2C-796F0B51FCA0}"/>
+    <hyperlink ref="B179" r:id="rId178" display="https://data360.worldbank.org/en/economy/LTU" xr:uid="{02B2978E-9CBD-48AD-8E85-0454073D902F}"/>
+    <hyperlink ref="B180" r:id="rId179" display="https://data360.worldbank.org/en/economy/LUX" xr:uid="{9EB4EC5D-7789-4570-A694-0428B8C51CA7}"/>
+    <hyperlink ref="B181" r:id="rId180" display="https://data360.worldbank.org/en/economy/MAC" xr:uid="{6F1A8977-9B2F-42F5-B521-6DADD67311B7}"/>
+    <hyperlink ref="B182" r:id="rId181" display="https://data360.worldbank.org/en/economy/MLT" xr:uid="{93A65A63-E215-43F4-8CF6-83B202ADD99D}"/>
+    <hyperlink ref="B183" r:id="rId182" display="https://data360.worldbank.org/en/economy/MCO" xr:uid="{512B6304-3DC1-4997-BFAE-5F7C4F40D15B}"/>
+    <hyperlink ref="B184" r:id="rId183" display="https://data360.worldbank.org/en/economy/NRU" xr:uid="{18044CFC-7BEE-4FAB-8858-E99FB8450239}"/>
+    <hyperlink ref="B185" r:id="rId184" display="https://data360.worldbank.org/en/economy/NLD" xr:uid="{82EF5AF3-4BF7-4337-A6B6-D9F084F83235}"/>
+    <hyperlink ref="B186" r:id="rId185" display="https://data360.worldbank.org/en/economy/NCL" xr:uid="{8010EC0C-F0B9-4FE2-ABB3-3DCB56251E21}"/>
+    <hyperlink ref="B187" r:id="rId186" display="https://data360.worldbank.org/en/economy/NZL" xr:uid="{21BB8AC5-1DFC-49EB-B3BC-B761E1E9F0BF}"/>
+    <hyperlink ref="B188" r:id="rId187" display="https://data360.worldbank.org/en/economy/MNP" xr:uid="{296E232D-FF56-4A25-9597-74BA9DFDD697}"/>
+    <hyperlink ref="B189" r:id="rId188" display="https://data360.worldbank.org/en/economy/NOR" xr:uid="{F216B099-581B-4AF0-809E-24EFB715521D}"/>
+    <hyperlink ref="B190" r:id="rId189" display="https://data360.worldbank.org/en/economy/OMN" xr:uid="{5618BE0E-A89A-4460-B793-D5E840A358FE}"/>
+    <hyperlink ref="B191" r:id="rId190" display="https://data360.worldbank.org/en/economy/PLW" xr:uid="{78F5003C-FB66-45A7-B4CF-435F5FCB8A30}"/>
+    <hyperlink ref="B192" r:id="rId191" display="https://data360.worldbank.org/en/economy/PAN" xr:uid="{7E45C073-1A0C-4D67-ADB1-6BC5ACD5BE42}"/>
+    <hyperlink ref="B193" r:id="rId192" display="https://data360.worldbank.org/en/economy/POL" xr:uid="{B567FEF7-4937-4E1E-849D-54C35DB18FDD}"/>
+    <hyperlink ref="B194" r:id="rId193" display="https://data360.worldbank.org/en/economy/PRT" xr:uid="{8DA13CED-CD85-4C86-AEB4-36A3116BBCF6}"/>
+    <hyperlink ref="B195" r:id="rId194" display="https://data360.worldbank.org/en/economy/PRI" xr:uid="{CBCED7E5-71C4-4A8E-9EC2-65FDBA8BFC25}"/>
+    <hyperlink ref="B196" r:id="rId195" display="https://data360.worldbank.org/en/economy/QAT" xr:uid="{CEFC3359-6CB2-4E26-A5E4-C9999B68C34B}"/>
+    <hyperlink ref="B197" r:id="rId196" display="https://data360.worldbank.org/en/economy/ROU" xr:uid="{517472C3-68E2-4DEA-AA95-936D92730258}"/>
+    <hyperlink ref="B198" r:id="rId197" display="https://data360.worldbank.org/en/economy/RUS" xr:uid="{C295E512-BF71-465B-A55E-85538E117B03}"/>
+    <hyperlink ref="B199" r:id="rId198" display="https://data360.worldbank.org/en/economy/SMR" xr:uid="{AFA36D9B-A869-4241-932A-7FCA99F6A8DF}"/>
+    <hyperlink ref="B200" r:id="rId199" display="https://data360.worldbank.org/en/economy/SAU" xr:uid="{3D49B7EA-F86F-432E-AADD-04CD6C8362AB}"/>
+    <hyperlink ref="B201" r:id="rId200" display="https://data360.worldbank.org/en/economy/SYC" xr:uid="{D0373057-E473-493C-BBF2-79643753F8EF}"/>
+    <hyperlink ref="B202" r:id="rId201" display="https://data360.worldbank.org/en/economy/SGP" xr:uid="{C8DED8C7-CDF8-448A-931A-FACB3F2C927A}"/>
+    <hyperlink ref="B203" r:id="rId202" display="https://data360.worldbank.org/en/economy/SXM" xr:uid="{D118D970-65BA-400C-BB03-95947B3E8374}"/>
+    <hyperlink ref="B204" r:id="rId203" display="https://data360.worldbank.org/en/economy/SVK" xr:uid="{FD361989-D0D5-454D-B062-99982B1FDF25}"/>
+    <hyperlink ref="B205" r:id="rId204" display="https://data360.worldbank.org/en/economy/SVN" xr:uid="{D73A2C97-502F-4669-92DC-1A1F3707A2AC}"/>
+    <hyperlink ref="B206" r:id="rId205" display="https://data360.worldbank.org/en/economy/ESP" xr:uid="{4488791C-2AB1-4E33-BAA0-DD6FE09DD5BB}"/>
+    <hyperlink ref="B207" r:id="rId206" display="https://data360.worldbank.org/en/economy/KNA" xr:uid="{2350F487-7BCE-4509-998E-4F6F5B38EEFE}"/>
+    <hyperlink ref="B208" r:id="rId207" display="https://data360.worldbank.org/en/economy/MAF" xr:uid="{02402537-1532-4FDD-8972-78FF04FA0EA1}"/>
+    <hyperlink ref="B209" r:id="rId208" display="https://data360.worldbank.org/en/economy/SWE" xr:uid="{4201CA60-C4DC-4B78-8ABA-5BB8396AE529}"/>
+    <hyperlink ref="B210" r:id="rId209" display="https://data360.worldbank.org/en/economy/CHE" xr:uid="{BEDD7F3A-1A8C-4123-A59F-AFC01C313B2C}"/>
+    <hyperlink ref="B211" r:id="rId210" display="https://data360.worldbank.org/en/economy/TWN" xr:uid="{0B8110AA-DFBE-49B7-8FCF-4882D74DEE56}"/>
+    <hyperlink ref="B212" r:id="rId211" display="https://data360.worldbank.org/en/economy/TTO" xr:uid="{D9BB7EDA-3510-4B76-BEAF-F30C548A2FCA}"/>
+    <hyperlink ref="B213" r:id="rId212" display="https://data360.worldbank.org/en/economy/TCA" xr:uid="{24F1CB7F-17AF-4BB6-BE50-0AB1FBE25040}"/>
+    <hyperlink ref="B214" r:id="rId213" display="https://data360.worldbank.org/en/economy/ARE" xr:uid="{9FEDCF52-4C22-449B-9F6A-E7D23E30D956}"/>
+    <hyperlink ref="B215" r:id="rId214" display="https://data360.worldbank.org/en/economy/GBR" xr:uid="{6FCBF94D-3859-4738-B0FC-282D69AD4DBE}"/>
+    <hyperlink ref="B216" r:id="rId215" display="https://data360.worldbank.org/en/economy/USA" xr:uid="{B8F2DF76-D3D2-4E06-8BA5-1A5ED3B292A9}"/>
+    <hyperlink ref="B217" r:id="rId216" display="https://data360.worldbank.org/en/economy/URY" xr:uid="{981CC7D8-DA9D-482D-8252-1E83EE8ECAEF}"/>
+    <hyperlink ref="B218" r:id="rId217" display="https://data360.worldbank.org/en/economy/VEN" xr:uid="{0E6D49EC-5EDF-45BF-97BB-D851D0395FF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/World Country Income Classification.xlsx
+++ b/World Country Income Classification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB23E995-9631-49B2-991B-5D80CA4D79C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F09CAC-F477-4104-9700-90D4C7C96F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{550B3595-9720-458A-932C-10503FDA9F55}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="224">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6DD4E5-5F5F-4CF5-B8DA-1C181DADA2B1}">
   <dimension ref="A1:B218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="G216" sqref="G215:G216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1120,126 +1120,201 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1253,251 +1328,401 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
       <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
       <c r="B51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
       <c r="B52" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
       <c r="B53" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
       <c r="B54" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
       <c r="B55" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
       <c r="B56" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>27</v>
+      </c>
       <c r="B57" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
       <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
       <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>27</v>
+      </c>
       <c r="B60" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
       <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
       <c r="B63" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
       <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>27</v>
+      </c>
       <c r="B65" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>27</v>
+      </c>
       <c r="B66" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>27</v>
+      </c>
       <c r="B67" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
       <c r="B68" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>27</v>
+      </c>
       <c r="B69" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>27</v>
+      </c>
       <c r="B70" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
       <c r="B71" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
       <c r="B72" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
       <c r="B73" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>27</v>
+      </c>
       <c r="B74" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>27</v>
+      </c>
       <c r="B75" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>27</v>
+      </c>
       <c r="B76" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>27</v>
+      </c>
       <c r="B77" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>27</v>
+      </c>
       <c r="B78" s="1" t="s">
         <v>78</v>
       </c>
@@ -1511,266 +1736,425 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
       <c r="B80" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
       <c r="B81" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
       <c r="B82" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>79</v>
+      </c>
       <c r="B83" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>79</v>
+      </c>
       <c r="B84" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>79</v>
+      </c>
       <c r="B85" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>79</v>
+      </c>
       <c r="B86" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>79</v>
+      </c>
       <c r="B87" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>79</v>
+      </c>
       <c r="B88" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>79</v>
+      </c>
       <c r="B89" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>79</v>
+      </c>
       <c r="B90" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>79</v>
+      </c>
       <c r="B91" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>79</v>
+      </c>
       <c r="B92" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>79</v>
+      </c>
       <c r="B93" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>79</v>
+      </c>
       <c r="B94" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>79</v>
+      </c>
       <c r="B95" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>79</v>
+      </c>
       <c r="B96" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>79</v>
+      </c>
       <c r="B97" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>79</v>
+      </c>
       <c r="B98" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>79</v>
+      </c>
       <c r="B99" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>79</v>
+      </c>
       <c r="B100" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>79</v>
+      </c>
       <c r="B101" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>79</v>
+      </c>
       <c r="B102" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>79</v>
+      </c>
       <c r="B103" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>79</v>
+      </c>
       <c r="B104" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>79</v>
+      </c>
       <c r="B105" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>79</v>
+      </c>
       <c r="B106" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>79</v>
+      </c>
       <c r="B107" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>79</v>
+      </c>
       <c r="B108" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>79</v>
+      </c>
       <c r="B109" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>79</v>
+      </c>
       <c r="B110" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>79</v>
+      </c>
       <c r="B111" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>79</v>
+      </c>
       <c r="B112" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>79</v>
+      </c>
       <c r="B113" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>79</v>
+      </c>
       <c r="B114" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>79</v>
+      </c>
       <c r="B115" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>79</v>
+      </c>
       <c r="B116" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>79</v>
+      </c>
       <c r="B117" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>79</v>
+      </c>
       <c r="B118" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>79</v>
+      </c>
       <c r="B119" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>79</v>
+      </c>
       <c r="B120" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>79</v>
+      </c>
       <c r="B121" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>79</v>
+      </c>
       <c r="B122" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>79</v>
+      </c>
       <c r="B123" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>79</v>
+      </c>
       <c r="B124" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>79</v>
+      </c>
       <c r="B125" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>79</v>
+      </c>
       <c r="B126" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>79</v>
+      </c>
       <c r="B127" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>79</v>
+      </c>
       <c r="B128" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>79</v>
+      </c>
       <c r="B129" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>79</v>
+      </c>
       <c r="B130" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>79</v>
+      </c>
       <c r="B131" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>79</v>
+      </c>
       <c r="B132" s="1" t="s">
         <v>133</v>
       </c>
@@ -1784,421 +2168,673 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
       <c r="B134" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
       <c r="B135" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>134</v>
+      </c>
       <c r="B136" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>134</v>
+      </c>
       <c r="B137" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>134</v>
+      </c>
       <c r="B138" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>134</v>
+      </c>
       <c r="B139" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>134</v>
+      </c>
       <c r="B140" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>134</v>
+      </c>
       <c r="B141" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>134</v>
+      </c>
       <c r="B142" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>134</v>
+      </c>
       <c r="B143" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>134</v>
+      </c>
       <c r="B144" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>134</v>
+      </c>
       <c r="B145" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>134</v>
+      </c>
       <c r="B146" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>134</v>
+      </c>
       <c r="B147" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>134</v>
+      </c>
       <c r="B148" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>134</v>
+      </c>
       <c r="B149" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>134</v>
+      </c>
       <c r="B150" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>134</v>
+      </c>
       <c r="B151" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>134</v>
+      </c>
       <c r="B152" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>134</v>
+      </c>
       <c r="B153" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>134</v>
+      </c>
       <c r="B154" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>134</v>
+      </c>
       <c r="B155" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>134</v>
+      </c>
       <c r="B156" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>134</v>
+      </c>
       <c r="B157" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>134</v>
+      </c>
       <c r="B158" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>134</v>
+      </c>
       <c r="B159" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>134</v>
+      </c>
       <c r="B160" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>134</v>
+      </c>
       <c r="B161" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>134</v>
+      </c>
       <c r="B162" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>134</v>
+      </c>
       <c r="B163" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>134</v>
+      </c>
       <c r="B164" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>134</v>
+      </c>
       <c r="B165" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>134</v>
+      </c>
       <c r="B166" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>134</v>
+      </c>
       <c r="B167" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>134</v>
+      </c>
       <c r="B168" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>134</v>
+      </c>
       <c r="B169" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>134</v>
+      </c>
       <c r="B170" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>134</v>
+      </c>
       <c r="B171" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>134</v>
+      </c>
       <c r="B172" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>134</v>
+      </c>
       <c r="B173" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>134</v>
+      </c>
       <c r="B174" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>134</v>
+      </c>
       <c r="B175" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>134</v>
+      </c>
       <c r="B176" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>134</v>
+      </c>
       <c r="B177" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>134</v>
+      </c>
       <c r="B178" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>134</v>
+      </c>
       <c r="B179" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>134</v>
+      </c>
       <c r="B180" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>134</v>
+      </c>
       <c r="B181" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>134</v>
+      </c>
       <c r="B182" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>134</v>
+      </c>
       <c r="B183" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>134</v>
+      </c>
       <c r="B184" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>134</v>
+      </c>
       <c r="B185" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>134</v>
+      </c>
       <c r="B186" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>134</v>
+      </c>
       <c r="B187" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>134</v>
+      </c>
       <c r="B188" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>134</v>
+      </c>
       <c r="B189" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>134</v>
+      </c>
       <c r="B190" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>134</v>
+      </c>
       <c r="B191" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>134</v>
+      </c>
       <c r="B192" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>134</v>
+      </c>
       <c r="B193" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>134</v>
+      </c>
       <c r="B194" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>134</v>
+      </c>
       <c r="B195" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>134</v>
+      </c>
       <c r="B196" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>134</v>
+      </c>
       <c r="B197" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>134</v>
+      </c>
       <c r="B198" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>134</v>
+      </c>
       <c r="B199" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>134</v>
+      </c>
       <c r="B200" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>134</v>
+      </c>
       <c r="B201" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>134</v>
+      </c>
       <c r="B202" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>134</v>
+      </c>
       <c r="B203" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>134</v>
+      </c>
       <c r="B204" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>134</v>
+      </c>
       <c r="B205" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>134</v>
+      </c>
       <c r="B206" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>134</v>
+      </c>
       <c r="B207" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>134</v>
+      </c>
       <c r="B208" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>134</v>
+      </c>
       <c r="B209" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>134</v>
+      </c>
       <c r="B210" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>134</v>
+      </c>
       <c r="B211" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>134</v>
+      </c>
       <c r="B212" s="1" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>134</v>
+      </c>
       <c r="B213" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>134</v>
+      </c>
       <c r="B214" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>134</v>
+      </c>
       <c r="B215" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>134</v>
+      </c>
       <c r="B216" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>134</v>
+      </c>
       <c r="B217" s="1" t="s">
         <v>219</v>
       </c>
